--- a/EstadoResultados.xlsx
+++ b/EstadoResultados.xlsx
@@ -581,53 +581,49 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
-        <v>44101</v>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Ventas de bienes</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>110000</v>
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>UTILIDAD BRUTA</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n"/>
+      <c r="C5" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>UTILIDAD BRUTA</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="8" t="n">
-        <v>110000</v>
-      </c>
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>GASTOS OPERATIVOS</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>GASTOS OPERATIVOS</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>UTILIDAD OPERATIVA</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>UTILIDAD OPERATIVA</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n">
-        <v>110000</v>
-      </c>
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>GASTOS FINANCIEROS</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GASTOS FINANCIEROS</t>
+          <t>OTROS INGRESOS</t>
         </is>
       </c>
       <c r="B9" s="7" t="n"/>
@@ -636,53 +632,49 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>OTROS INGRESOS</t>
+          <t>OTROS GASTOS</t>
         </is>
       </c>
       <c r="B10" s="7" t="n"/>
       <c r="C10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>OTROS GASTOS</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>UTILIDAD ANTES DE IMPUESTOS</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>UTILIDAD ANTES DE IMPUESTOS</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n">
-        <v>110000</v>
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>Impuesto a la renta</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="n"/>
+      <c r="C12" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="inlineStr">
-        <is>
-          <t>Impuesto a la renta</t>
-        </is>
-      </c>
-      <c r="B13" s="9" t="n"/>
-      <c r="C13" s="9" t="n">
-        <v>5500</v>
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>UTILIDAD NETA</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="n"/>
+      <c r="C13" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>UTILIDAD NETA</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n">
-        <v>104500</v>
-      </c>
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="5" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>

--- a/EstadoResultados.xlsx
+++ b/EstadoResultados.xlsx
@@ -581,105 +581,121 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>UTILIDAD BRUTA</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="n"/>
-      <c r="C5" s="8" t="n">
-        <v>0</v>
+      <c r="A5" s="5" t="n">
+        <v>441</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Ventas de bienes y servicios</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>GASTOS OPERATIVOS</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
+      <c r="A6" s="5" t="n">
+        <v>531</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Costo de ventas de bienes y servicios</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="inlineStr">
         <is>
-          <t>UTILIDAD OPERATIVA</t>
+          <t>UTILIDAD BRUTA</t>
         </is>
       </c>
       <c r="B7" s="8" t="n"/>
       <c r="C7" s="8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GASTOS FINANCIEROS</t>
+          <t>GASTOS OPERATIVOS</t>
         </is>
       </c>
       <c r="B8" s="7" t="n"/>
       <c r="C8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>OTROS INGRESOS</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>UTILIDAD OPERATIVA</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>OTROS GASTOS</t>
+          <t>GASTOS FINANCIEROS</t>
         </is>
       </c>
       <c r="B10" s="7" t="n"/>
       <c r="C10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>UTILIDAD ANTES DE IMPUESTOS</t>
-        </is>
-      </c>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>OTROS INGRESOS</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>Impuesto a la renta</t>
-        </is>
-      </c>
-      <c r="B12" s="9" t="n"/>
-      <c r="C12" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>OTROS GASTOS</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>UTILIDAD NETA</t>
+          <t>UTILIDAD ANTES DE IMPUESTOS</t>
         </is>
       </c>
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>Impuesto a la renta</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="n"/>
+      <c r="C14" s="9" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>UTILIDAD NETA</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n"/>
+      <c r="C15" s="8" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n"/>
